--- a/results/COL.xlsx
+++ b/results/COL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,6 +2099,598 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>10.20273590087891</v>
+      </c>
+      <c r="E34" t="n">
+        <v>28.10489174773218</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>45.65791965970256</v>
+      </c>
+      <c r="H34" t="n">
+        <v>40</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.844731544352345</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>29</v>
+      </c>
+      <c r="M34" t="n">
+        <v>18.63229486731778</v>
+      </c>
+      <c r="N34" t="n">
+        <v>17.55302791197039</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-9.472596880414393</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-27.02562479238478</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>61</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>13.12647724151611</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15.32812621579793</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>20.53698128851986</v>
+      </c>
+      <c r="H35" t="n">
+        <v>29</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-13.00611971586399</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>5.208855072721928</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>86</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>14.9103832244873</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.670916623120283</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.115712642873021</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-14.34800560110058</v>
+      </c>
+      <c r="J36" t="n">
+        <v>32</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>31</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-8.253970182933186</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8.786629265993305</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-5.583053559812902</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-14.36968282580621</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>111</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>15.68036937713623</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-4.386287629791378</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.808901465063167</v>
+      </c>
+      <c r="H37" t="n">
+        <v>33</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-18.55395560442638</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-12.75916842288426</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.195189094854546</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-8.372880793092882</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-15.56806988794743</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>139</v>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>14.98878765106201</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.87225119637272</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>12.34192574049123</v>
+      </c>
+      <c r="H38" t="n">
+        <v>52</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-9.608032836994637</v>
+      </c>
+      <c r="J38" t="n">
+        <v>27</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>14</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-1.128366228850848</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.469674544118517</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-12.00061742522356</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-13.47029196934208</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>178</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>16.59197235107422</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.3767111792060027</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.354744652040772</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-13.73212299804742</v>
+      </c>
+      <c r="J39" t="n">
+        <v>28</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>21</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-10.32894461552469</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.978033472834769</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-10.70565579473069</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-14.68368926756546</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>218</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>15.68484401702881</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-7.446911551102099</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>9.913803646290392</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-11.96169864274231</v>
+      </c>
+      <c r="J40" t="n">
+        <v>39</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.907890379078518</v>
+      </c>
+      <c r="N40" t="n">
+        <v>17.36071519739249</v>
+      </c>
+      <c r="O40" t="n">
+        <v>11.35480193018062</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-6.005913267211874</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>228</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>16.80080795288086</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-7.139401861528164</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.612973753728526</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-17.80948700886833</v>
+      </c>
+      <c r="J41" t="n">
+        <v>29</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-2.994007353383599</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9.752375615256689</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4.145394508144565</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-5.606981107112125</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>273</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>15.02927398681641</v>
+      </c>
+      <c r="E42" t="n">
+        <v>26.97776099196058</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>27.49315692572213</v>
+      </c>
+      <c r="H42" t="n">
+        <v>52</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-4.835691816632501</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>37</v>
+      </c>
+      <c r="M42" t="n">
+        <v>13.44894226508021</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5153959337615568</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-13.52881872688037</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-14.04421466064193</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>290</v>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>16.17246055603027</v>
+      </c>
+      <c r="E43" t="n">
+        <v>35.56898686606376</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>37.46036945682945</v>
+      </c>
+      <c r="H43" t="n">
+        <v>48</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1.353734816567277</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>20</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.429549876418603</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.891382590765694</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-30.13943698964516</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-32.03081958041085</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>294</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>16.53417587280273</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22.09994151351938</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34.45317263829772</v>
+      </c>
+      <c r="H44" t="n">
+        <v>44</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-2.36040146776894</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>16</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.123085779018004</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.35323112477834</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-18.97685573450137</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-31.33008685927971</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>300</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>17.67643356323242</v>
+      </c>
+      <c r="E45" t="n">
+        <v>16.38682619404367</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25.76475877362436</v>
+      </c>
+      <c r="H45" t="n">
+        <v>38</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-5.293573323669627</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>10</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-3.540766257115425</v>
+      </c>
+      <c r="N45" t="n">
+        <v>9.37793257958069</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-19.92759245115909</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-29.30552503073978</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2111,7 +2703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,40 +2916,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.17266485326286</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.10018870608532</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.15955036377552</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19.12620172026527</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-9.558962948086196</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.95353686700241</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.09090909090909</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.18181818181818</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-10.29157381064866</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>319</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>75.86206896551724</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>13.14401844930401</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>11.37391437349949</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>14.5412978109015</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>22.28342564517627</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-7.790780645418653</v>
       </c>
     </row>
